--- a/9月22日测试反馈-衣金亮.xlsx
+++ b/9月22日测试反馈-衣金亮.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t xml:space="preserve">iPad Air iOS8 </t>
   </si>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>无限城·背景图全黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选人界面即便手指按着不懂，界面也会抖动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -601,6 +605,11 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
